--- a/Wyoming/WaterAllocation/WYwr_POD_Allocation Schema Mapping to WaDE.xlsx
+++ b/Wyoming/WaterAllocation/WYwr_POD_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Wyoming\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D534ED-3F95-4639-8BED-F9DDFCF5EB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9806D355-6C59-461C-A39D-750C474CD2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="527">
   <si>
     <t>Name</t>
   </si>
@@ -280,9 +280,6 @@
     <t>OrganizationContactEmail</t>
   </si>
   <si>
-    <t>OrganizationDataMappingURL</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
@@ -1076,9 +1073,6 @@
   </si>
   <si>
     <t>MEC</t>
-  </si>
-  <si>
-    <t>Mechanical </t>
   </si>
   <si>
     <t>MED</t>
@@ -1667,6 +1661,15 @@
   </si>
   <si>
     <t>Legal Processes</t>
+  </si>
+  <si>
+    <t>Mechanical</t>
+  </si>
+  <si>
+    <t>Some of their sites and water source names contain a ',' value, will remove to ensure we are getting the record as temp fix.</t>
+  </si>
+  <si>
+    <t>WaDEDataMappingUrl</t>
   </si>
 </sst>
 </file>
@@ -3290,55 +3293,57 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="B8" s="93"/>
+        <v>237</v>
+      </c>
+      <c r="B8" s="93" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -3352,7 +3357,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3391,13 +3396,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="54" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3438,7 +3443,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3455,7 +3460,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="92" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F4" s="60" t="s">
         <v>38</v>
@@ -3467,10 +3472,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="76" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J4" s="77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3487,7 +3492,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>38</v>
@@ -3499,10 +3504,10 @@
         <v>38</v>
       </c>
       <c r="I5" s="76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J5" s="77" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3519,7 +3524,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>38</v>
@@ -3534,7 +3539,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="77" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3551,7 +3556,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F7" s="44" t="s">
         <v>38</v>
@@ -3566,7 +3571,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3583,7 +3588,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F8" s="44" t="s">
         <v>38</v>
@@ -3595,10 +3600,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="79" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J8" s="77" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3615,7 +3620,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F9" s="44" t="s">
         <v>38</v>
@@ -3628,7 +3633,7 @@
       </c>
       <c r="I9" s="80"/>
       <c r="J9" s="77" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3645,7 +3650,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F10" s="44" t="s">
         <v>38</v>
@@ -3657,10 +3662,10 @@
         <v>38</v>
       </c>
       <c r="I10" s="76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J10" s="77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36" x14ac:dyDescent="0.3">
@@ -3677,7 +3682,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="91" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>38</v>
@@ -3689,10 +3694,10 @@
         <v>38</v>
       </c>
       <c r="I11" s="76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J11" s="77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3709,7 +3714,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>38</v>
@@ -3721,10 +3726,42 @@
         <v>38</v>
       </c>
       <c r="I12" s="76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J12" s="77" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="100" t="s">
+        <v>444</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="77" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -3739,9 +3776,10 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="E11" r:id="rId1" xr:uid="{29056BF3-4647-4095-A5F7-9C025F9A0278}"/>
+    <hyperlink ref="E13" r:id="rId2" xr:uid="{883B1D5D-021F-4AE7-974B-4CB782000213}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3789,13 +3827,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3830,7 +3868,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3847,7 +3885,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="92" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -3859,10 +3897,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J4" s="77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3890,7 +3928,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="77" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3907,7 +3945,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="99" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>38</v>
@@ -3919,10 +3957,10 @@
         <v>38</v>
       </c>
       <c r="I6" s="76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J6" s="77" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3939,7 +3977,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="99" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="44" t="s">
         <v>38</v>
@@ -3951,10 +3989,10 @@
         <v>38</v>
       </c>
       <c r="I7" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J7" s="77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3971,7 +4009,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="99" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="44" t="s">
         <v>38</v>
@@ -3983,10 +4021,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J8" s="77" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4003,7 +4041,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" s="44" t="s">
         <v>38</v>
@@ -4015,10 +4053,10 @@
         <v>38</v>
       </c>
       <c r="I9" s="76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J9" s="77" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4050,7 +4088,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="77" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4067,7 +4105,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="99" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>38</v>
@@ -4079,10 +4117,10 @@
         <v>38</v>
       </c>
       <c r="I11" s="76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J11" s="77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4099,7 +4137,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="99" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>38</v>
@@ -4111,10 +4149,10 @@
         <v>38</v>
       </c>
       <c r="I12" s="76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J12" s="77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -4131,7 +4169,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="99" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F13" s="44" t="s">
         <v>38</v>
@@ -4143,10 +4181,10 @@
         <v>38</v>
       </c>
       <c r="I13" s="76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J13" s="77" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -4160,10 +4198,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4202,13 +4240,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4249,7 +4287,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -4266,7 +4304,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -4278,10 +4316,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J4" s="77" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4298,7 +4336,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="103" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>38</v>
@@ -4310,10 +4348,10 @@
         <v>38</v>
       </c>
       <c r="I5" s="80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5" s="77" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4330,7 +4368,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>38</v>
@@ -4342,15 +4380,15 @@
         <v>38</v>
       </c>
       <c r="I6" s="80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J6" s="77" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>34</v>
@@ -4361,8 +4399,8 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="100" t="s">
-        <v>446</v>
+      <c r="E7" s="101" t="s">
+        <v>439</v>
       </c>
       <c r="F7" s="44" t="s">
         <v>38</v>
@@ -4374,15 +4412,15 @@
         <v>38</v>
       </c>
       <c r="I7" s="80" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="J7" s="77" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>34</v>
@@ -4393,7 +4431,7 @@
       <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="101" t="s">
+      <c r="E8" s="45" t="s">
         <v>441</v>
       </c>
       <c r="F8" s="44" t="s">
@@ -4406,27 +4444,27 @@
         <v>38</v>
       </c>
       <c r="I8" s="80" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="J8" s="77" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="84" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F9" s="44" t="s">
         <v>38</v>
@@ -4438,27 +4476,27 @@
         <v>38</v>
       </c>
       <c r="I9" s="80" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="J9" s="77" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="84" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="45" t="s">
-        <v>448</v>
+      <c r="E10" s="103" t="s">
+        <v>440</v>
       </c>
       <c r="F10" s="44" t="s">
         <v>38</v>
@@ -4470,18 +4508,18 @@
         <v>38</v>
       </c>
       <c r="I10" s="80" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="J10" s="77" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>38</v>
@@ -4489,8 +4527,8 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="103" t="s">
-        <v>442</v>
+      <c r="E11" s="15" t="s">
+        <v>445</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>38</v>
@@ -4502,43 +4540,14 @@
         <v>38</v>
       </c>
       <c r="I11" s="80" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J11" s="77" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="J12" s="77" t="s">
-        <v>185</v>
-      </c>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19"/>
@@ -4561,20 +4570,16 @@
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:A25">
-    <sortCondition ref="A17:A25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:A24">
+    <sortCondition ref="A16:A24"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" xr:uid="{605119CB-F280-47B5-8E9C-1CE5DB5711FF}"/>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{605119CB-F280-47B5-8E9C-1CE5DB5711FF}"/>
     <hyperlink ref="E5" r:id="rId2" xr:uid="{726AE98C-F50F-4381-9380-5B4D11C9FCC0}"/>
-    <hyperlink ref="E7" r:id="rId3" xr:uid="{883B1D5D-021F-4AE7-974B-4CB782000213}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4622,13 +4627,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="54" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4661,7 +4666,7 @@
         <v>34658</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -4678,7 +4683,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F4" s="60" t="s">
         <v>38</v>
@@ -4688,10 +4693,10 @@
       </c>
       <c r="H4" s="75"/>
       <c r="I4" s="76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J4" s="77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4708,7 +4713,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>38</v>
@@ -4721,7 +4726,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="77" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4738,7 +4743,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>38</v>
@@ -4751,7 +4756,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="77" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4768,7 +4773,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" s="44" t="s">
         <v>38</v>
@@ -4778,10 +4783,10 @@
       </c>
       <c r="H7" s="75"/>
       <c r="I7" s="76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J7" s="77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4801,17 +4806,17 @@
         <v>38</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H8" s="81"/>
       <c r="I8" s="76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J8" s="77" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4828,7 +4833,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
@@ -4841,7 +4846,7 @@
         <v>17839</v>
       </c>
       <c r="J9" s="77" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4858,7 +4863,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -4868,10 +4873,10 @@
       </c>
       <c r="H10" s="81"/>
       <c r="I10" s="76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J10" s="77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4935,13 +4940,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="54" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4980,7 +4985,7 @@
         <v>39035</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4995,7 +5000,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F4" s="60" t="s">
         <v>38</v>
@@ -5005,10 +5010,10 @@
       </c>
       <c r="H4" s="75"/>
       <c r="I4" s="80" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J4" s="77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -5016,7 +5021,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>18</v>
@@ -5025,7 +5030,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>38</v>
@@ -5035,10 +5040,10 @@
       </c>
       <c r="H5" s="75"/>
       <c r="I5" s="80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J5" s="77" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5055,7 +5060,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>38</v>
@@ -5065,10 +5070,10 @@
       </c>
       <c r="H6" s="75"/>
       <c r="I6" s="80" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J6" s="77" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -5076,7 +5081,7 @@
         <v>66</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>18</v>
@@ -5085,7 +5090,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F7" s="44" t="s">
         <v>38</v>
@@ -5098,7 +5103,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -5125,10 +5130,10 @@
       </c>
       <c r="H8" s="81"/>
       <c r="I8" s="80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J8" s="77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -5145,7 +5150,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F9" s="44" t="s">
         <v>38</v>
@@ -5156,7 +5161,7 @@
       <c r="H9" s="75"/>
       <c r="I9" s="80"/>
       <c r="J9" s="77" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -5173,7 +5178,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F10" s="44" t="s">
         <v>38</v>
@@ -5186,7 +5191,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="77" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5194,7 +5199,7 @@
         <v>64</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>18</v>
@@ -5203,7 +5208,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>38</v>
@@ -5216,7 +5221,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5224,7 +5229,7 @@
         <v>65</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>18</v>
@@ -5233,7 +5238,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>38</v>
@@ -5246,7 +5251,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5266,17 +5271,17 @@
         <v>38</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H13" s="83"/>
       <c r="I13" s="80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J13" s="77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5296,17 +5301,17 @@
         <v>38</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H14" s="83"/>
       <c r="I14" s="80">
         <v>-1067.700435</v>
       </c>
       <c r="J14" s="77" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5323,7 +5328,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F15" s="44" t="s">
         <v>38</v>
@@ -5336,7 +5341,7 @@
         <v>38</v>
       </c>
       <c r="J15" s="77" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5353,7 +5358,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F16" s="44" t="s">
         <v>38</v>
@@ -5366,12 +5371,12 @@
         <v>38</v>
       </c>
       <c r="J16" s="77" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -5383,7 +5388,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -5393,7 +5398,7 @@
       </c>
       <c r="H17" s="84"/>
       <c r="I17" s="85" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J17" s="84"/>
     </row>
@@ -5412,17 +5417,17 @@
         <v>38</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H18" s="75"/>
       <c r="I18" s="80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J18" s="77" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5439,7 +5444,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F19" s="44" t="s">
         <v>38</v>
@@ -5452,7 +5457,7 @@
         <v>3703994</v>
       </c>
       <c r="J19" s="77" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -5469,7 +5474,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F20" s="44" t="s">
         <v>38</v>
@@ -5479,10 +5484,10 @@
       </c>
       <c r="H20" s="75"/>
       <c r="I20" s="80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J20" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5502,17 +5507,17 @@
         <v>38</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H21" s="75"/>
       <c r="I21" s="80" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J21" s="77" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5529,7 +5534,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F22" s="44" t="s">
         <v>38</v>
@@ -5539,10 +5544,10 @@
       </c>
       <c r="H22" s="75"/>
       <c r="I22" s="80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J22" s="77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5559,7 +5564,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F23" s="44" t="s">
         <v>38</v>
@@ -5572,7 +5577,7 @@
         <v>38</v>
       </c>
       <c r="J23" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -5628,13 +5633,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="54" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -5648,7 +5653,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>33</v>
@@ -5669,7 +5674,7 @@
         <v>50004</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -5701,7 +5706,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -5733,7 +5738,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -5765,7 +5770,7 @@
         <v>39035</v>
       </c>
       <c r="J6" s="77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -5797,7 +5802,7 @@
         <v>63</v>
       </c>
       <c r="J7" s="77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -5829,12 +5834,12 @@
         <v>371091</v>
       </c>
       <c r="J8" s="77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>34</v>
@@ -5846,7 +5851,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="32"/>
@@ -5868,7 +5873,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="121" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -5883,7 +5888,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5900,7 +5905,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="68" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -5915,7 +5920,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="77" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5932,7 +5937,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -5947,7 +5952,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="77" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5964,7 +5969,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="67" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>38</v>
@@ -5979,7 +5984,7 @@
         <v>38</v>
       </c>
       <c r="J13" s="77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5996,7 +6001,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="69" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F14" s="60" t="s">
         <v>38</v>
@@ -6011,12 +6016,12 @@
         <v>38</v>
       </c>
       <c r="J14" s="77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>33</v>
@@ -6028,7 +6033,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>38</v>
@@ -6043,12 +6048,12 @@
         <v>5363</v>
       </c>
       <c r="J15" s="77" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>68</v>
@@ -6060,7 +6065,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>38</v>
@@ -6072,15 +6077,15 @@
         <v>38</v>
       </c>
       <c r="I16" s="80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J16" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>68</v>
@@ -6092,7 +6097,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -6104,15 +6109,15 @@
         <v>38</v>
       </c>
       <c r="I17" s="80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J17" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>34</v>
@@ -6124,7 +6129,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>38</v>
@@ -6136,15 +6141,15 @@
         <v>38</v>
       </c>
       <c r="I18" s="80" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J18" s="77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>15</v>
@@ -6156,7 +6161,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>38</v>
@@ -6168,15 +6173,15 @@
         <v>38</v>
       </c>
       <c r="I19" s="80" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J19" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>34</v>
@@ -6188,7 +6193,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>38</v>
@@ -6200,15 +6205,15 @@
         <v>38</v>
       </c>
       <c r="I20" s="80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J20" s="77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>69</v>
@@ -6220,7 +6225,7 @@
         <v>38</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>38</v>
@@ -6235,12 +6240,12 @@
         <v>38</v>
       </c>
       <c r="J21" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>33</v>
@@ -6252,7 +6257,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>38</v>
@@ -6267,12 +6272,12 @@
         <v>5200</v>
       </c>
       <c r="J22" s="77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="73" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>69</v>
@@ -6287,10 +6292,10 @@
         <v>38</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H23" s="86" t="s">
         <v>38</v>
@@ -6299,12 +6304,12 @@
         <v>1</v>
       </c>
       <c r="J23" s="77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>34</v>
@@ -6319,24 +6324,24 @@
         <v>38</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H24" s="86" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J24" s="77" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="36" t="s">
         <v>34</v>
@@ -6351,24 +6356,24 @@
         <v>38</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G25" s="47" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H25" s="86" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J25" s="77" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="36" t="s">
         <v>68</v>
@@ -6380,27 +6385,27 @@
         <v>38</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G26" s="47" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H26" s="86" t="s">
         <v>38</v>
       </c>
       <c r="I26" s="80" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J26" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>33</v>
@@ -6413,24 +6418,24 @@
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="42" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G27" s="47" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H27" s="86" t="s">
         <v>38</v>
       </c>
       <c r="I27" s="80" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J27" s="77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="36" t="s">
         <v>15</v>
@@ -6442,7 +6447,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>38</v>
@@ -6457,15 +6462,15 @@
         <v>38</v>
       </c>
       <c r="J28" s="77" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="36" t="s">
         <v>18</v>
@@ -6474,7 +6479,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>38</v>
@@ -6489,15 +6494,15 @@
         <v>44196</v>
       </c>
       <c r="J29" s="77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C30" s="36" t="s">
         <v>18</v>
@@ -6506,7 +6511,7 @@
         <v>38</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>38</v>
@@ -6521,12 +6526,12 @@
         <v>43831</v>
       </c>
       <c r="J30" s="77" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="115" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" s="116" t="s">
         <v>34</v>
@@ -6538,27 +6543,27 @@
         <v>20</v>
       </c>
       <c r="E31" s="118" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F31" s="119" t="s">
         <v>38</v>
       </c>
       <c r="G31" s="120" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H31" s="86" t="s">
         <v>38</v>
       </c>
       <c r="I31" s="80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J31" s="77" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="73" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B32" s="36" t="s">
         <v>69</v>
@@ -6570,7 +6575,7 @@
         <v>38</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>38</v>
@@ -6585,12 +6590,12 @@
         <v>0</v>
       </c>
       <c r="J32" s="77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>34</v>
@@ -6602,13 +6607,13 @@
         <v>38</v>
       </c>
       <c r="E33" s="71" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F33" s="42" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G33" s="46" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H33" s="86" t="s">
         <v>38</v>
@@ -6617,12 +6622,12 @@
         <v>38</v>
       </c>
       <c r="J33" s="77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="36" t="s">
         <v>34</v>
@@ -6634,7 +6639,7 @@
         <v>38</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>38</v>
@@ -6646,15 +6651,15 @@
         <v>38</v>
       </c>
       <c r="I34" s="80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J34" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>15</v>
@@ -6666,7 +6671,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>38</v>
@@ -6678,15 +6683,15 @@
         <v>38</v>
       </c>
       <c r="I35" s="80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J35" s="77" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="36" t="s">
         <v>15</v>
@@ -6698,7 +6703,7 @@
         <v>20</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>38</v>
@@ -6710,15 +6715,15 @@
         <v>38</v>
       </c>
       <c r="I36" s="80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J36" s="77" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B37" s="36" t="s">
         <v>33</v>
@@ -6745,12 +6750,12 @@
         <v>43874</v>
       </c>
       <c r="J37" s="77" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="36" t="s">
         <v>15</v>
@@ -6762,7 +6767,7 @@
         <v>38</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>38</v>
@@ -6777,15 +6782,15 @@
         <v>33187</v>
       </c>
       <c r="J38" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="73" t="s">
+        <v>243</v>
+      </c>
+      <c r="B39" s="36" t="s">
         <v>244</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>245</v>
       </c>
       <c r="C39" s="37" t="s">
         <v>18</v>
@@ -6808,7 +6813,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" s="36" t="s">
         <v>69</v>
@@ -6820,7 +6825,7 @@
         <v>38</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F40" s="24" t="s">
         <v>38</v>
@@ -6835,12 +6840,12 @@
         <v>38</v>
       </c>
       <c r="J40" s="77" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" s="36" t="s">
         <v>69</v>
@@ -6852,7 +6857,7 @@
         <v>38</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>38</v>
@@ -6865,12 +6870,12 @@
         <v>38</v>
       </c>
       <c r="J41" s="77" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B42" s="36" t="s">
         <v>15</v>
@@ -6882,7 +6887,7 @@
         <v>20</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>38</v>
@@ -6894,15 +6899,15 @@
         <v>38</v>
       </c>
       <c r="I42" s="80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J42" s="77" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>34</v>
@@ -6914,7 +6919,7 @@
         <v>38</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F43" s="24" t="s">
         <v>38</v>
@@ -6929,12 +6934,12 @@
         <v>38</v>
       </c>
       <c r="J43" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -6952,10 +6957,10 @@
         <v>38</v>
       </c>
       <c r="I44" s="113" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J44" s="114" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6966,7 +6971,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B45" s="36" t="s">
         <v>33</v>
@@ -6978,7 +6983,7 @@
         <v>38</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F45" s="24" t="s">
         <v>38</v>
@@ -6993,12 +6998,12 @@
         <v>38</v>
       </c>
       <c r="J45" s="77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B46" s="36" t="s">
         <v>16</v>
@@ -7010,7 +7015,7 @@
         <v>20</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>38</v>
@@ -7022,18 +7027,18 @@
         <v>38</v>
       </c>
       <c r="I46" s="80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J46" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" s="37" t="s">
         <v>18</v>
@@ -7042,7 +7047,7 @@
         <v>20</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F47" s="24" t="s">
         <v>38</v>
@@ -7054,15 +7059,15 @@
         <v>38</v>
       </c>
       <c r="I47" s="80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J47" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" s="36" t="s">
         <v>34</v>
@@ -7074,7 +7079,7 @@
         <v>38</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F48" s="24" t="s">
         <v>38</v>
@@ -7086,10 +7091,10 @@
         <v>38</v>
       </c>
       <c r="I48" s="80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J48" s="77" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -7106,8 +7111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A68CD9-E6C8-4C1E-8A36-F76F66BA5935}">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:XFD80"/>
+    <sheetView topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7123,36 +7128,36 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="95" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G1" s="98" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="96" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C2" s="106" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F2" s="96" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G2" s="96" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H2" s="94"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="97" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B3" s="105" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" s="107" t="str">
         <f>""""&amp;A3&amp;""""&amp;" : "&amp;""""&amp;B3&amp;""""&amp;","</f>
@@ -7161,18 +7166,18 @@
       <c r="D3" s="41"/>
       <c r="E3" s="41"/>
       <c r="F3" s="97" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G3" s="97" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="97" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B4" s="105" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C4" s="107" t="str">
         <f t="shared" ref="C4:C42" si="0">""""&amp;A4&amp;""""&amp;" : "&amp;""""&amp;B4&amp;""""&amp;","</f>
@@ -7181,18 +7186,18 @@
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
       <c r="F4" s="97" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G4" s="97" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="97" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C5" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7201,18 +7206,18 @@
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
       <c r="F5" s="97" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G5" s="97" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="97" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B6" s="105" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C6" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7221,18 +7226,18 @@
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
       <c r="F6" s="97" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="97" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B7" s="105" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C7" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7241,18 +7246,18 @@
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
       <c r="F7" s="97" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G7" s="97" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="97" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B8" s="105" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C8" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7261,18 +7266,18 @@
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
       <c r="F8" s="97" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G8" s="97" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="97" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B9" s="105" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C9" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7281,18 +7286,18 @@
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
       <c r="F9" s="97" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G9" s="97" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="97" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10" s="105" t="s">
         <v>332</v>
-      </c>
-      <c r="B10" s="105" t="s">
-        <v>333</v>
       </c>
       <c r="C10" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7301,18 +7306,18 @@
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
       <c r="F10" s="97" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G10" s="97" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="97" t="s">
+        <v>333</v>
+      </c>
+      <c r="B11" s="105" t="s">
         <v>334</v>
-      </c>
-      <c r="B11" s="105" t="s">
-        <v>335</v>
       </c>
       <c r="C11" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7321,18 +7326,18 @@
       <c r="D11" s="41"/>
       <c r="E11" s="41"/>
       <c r="F11" s="97" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G11" s="97" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="97" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C12" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7341,18 +7346,18 @@
       <c r="D12" s="41"/>
       <c r="E12" s="41"/>
       <c r="F12" s="97" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G12" s="97" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B13" s="105" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C13" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7361,18 +7366,18 @@
       <c r="D13" s="41"/>
       <c r="E13" s="41"/>
       <c r="F13" s="97" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G13" s="97" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="97" t="s">
+        <v>335</v>
+      </c>
+      <c r="B14" s="105" t="s">
         <v>336</v>
-      </c>
-      <c r="B14" s="105" t="s">
-        <v>337</v>
       </c>
       <c r="C14" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7381,18 +7386,18 @@
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="97" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G14" s="97" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="97" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B15" s="105" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C15" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7401,18 +7406,18 @@
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="97" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G15" s="97" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B16" s="105" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C16" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7421,18 +7426,18 @@
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="97" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G16" s="97" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="97" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B17" s="105" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7441,18 +7446,18 @@
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="97" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G17" s="97" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="97" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B18" s="105" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C18" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7464,15 +7469,15 @@
         <v>38</v>
       </c>
       <c r="G18" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="97" t="s">
+        <v>337</v>
+      </c>
+      <c r="B19" s="105" t="s">
         <v>338</v>
-      </c>
-      <c r="B19" s="105" t="s">
-        <v>339</v>
       </c>
       <c r="C19" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7483,10 +7488,10 @@
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="97" t="s">
+        <v>339</v>
+      </c>
+      <c r="B20" s="105" t="s">
         <v>340</v>
-      </c>
-      <c r="B20" s="105" t="s">
-        <v>341</v>
       </c>
       <c r="C20" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7497,10 +7502,10 @@
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="97" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B21" s="105" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C21" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7511,10 +7516,10 @@
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="97" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B22" s="105" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C22" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7525,10 +7530,10 @@
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="97" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B23" s="105" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C23" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7539,10 +7544,10 @@
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="97" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B24" s="105" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C24" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7553,10 +7558,10 @@
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="97" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B25" s="105" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C25" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7567,10 +7572,10 @@
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="97" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B26" s="105" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C26" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7581,10 +7586,10 @@
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="97" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B27" s="105" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C27" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7595,10 +7600,10 @@
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="97" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B28" s="105" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C28" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7609,10 +7614,10 @@
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="97" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B29" s="105" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7623,10 +7628,10 @@
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B30" s="105" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C30" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7637,10 +7642,10 @@
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B31" s="105" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C31" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7651,10 +7656,10 @@
     </row>
     <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="97" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B32" s="105" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C32" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7665,10 +7670,10 @@
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="97" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B33" s="105" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C33" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7679,10 +7684,10 @@
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="97" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B34" s="105" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C34" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7693,10 +7698,10 @@
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="97" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B35" s="105" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C35" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7707,10 +7712,10 @@
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="97" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B36" s="105" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C36" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7721,10 +7726,10 @@
     </row>
     <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="97" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B37" s="105" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C37" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7735,10 +7740,10 @@
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="97" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B38" s="105" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C38" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7749,10 +7754,10 @@
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="97" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B39" s="105" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C39" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7763,10 +7768,10 @@
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="97" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B40" s="105" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C40" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7777,10 +7782,10 @@
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="97" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B41" s="105" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C41" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7791,10 +7796,10 @@
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="97" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B42" s="105" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C42" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7805,10 +7810,10 @@
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="97" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B43" s="105" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C43" s="107" t="str">
         <f t="shared" ref="C43:C89" si="1">""""&amp;A43&amp;""""&amp;" : "&amp;""""&amp;B43&amp;""""&amp;","</f>
@@ -7821,10 +7826,10 @@
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="97" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B44" s="105" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C44" s="107" t="str">
         <f t="shared" si="1"/>
@@ -7837,10 +7842,10 @@
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="97" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B45" s="105" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C45" s="107" t="str">
         <f t="shared" si="1"/>
@@ -7853,10 +7858,10 @@
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="97" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B46" s="105" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C46" s="107" t="str">
         <f t="shared" si="1"/>
@@ -7869,10 +7874,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="97" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B47" s="105" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C47" s="107" t="str">
         <f t="shared" si="1"/>
@@ -7885,10 +7890,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="97" t="s">
+        <v>341</v>
+      </c>
+      <c r="B48" s="105" t="s">
         <v>342</v>
-      </c>
-      <c r="B48" s="105" t="s">
-        <v>343</v>
       </c>
       <c r="C48" s="107" t="str">
         <f t="shared" si="1"/>
@@ -7901,10 +7906,10 @@
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="97" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B49" s="105" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C49" s="107" t="str">
         <f t="shared" si="1"/>
@@ -7917,14 +7922,14 @@
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="97" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B50" s="105" t="s">
-        <v>345</v>
+        <v>524</v>
       </c>
       <c r="C50" s="107" t="str">
         <f t="shared" si="1"/>
-        <v>"MEC" : "Mechanical ",</v>
+        <v>"MEC" : "Mechanical",</v>
       </c>
       <c r="D50" s="41"/>
       <c r="E50" s="41"/>
@@ -7933,10 +7938,10 @@
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="97" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B51" s="105" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C51" s="107" t="str">
         <f t="shared" si="1"/>
@@ -7949,10 +7954,10 @@
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="97" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B52" s="105" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C52" s="107" t="str">
         <f t="shared" si="1"/>
@@ -7965,10 +7970,10 @@
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="97" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B53" s="105" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C53" s="107" t="str">
         <f t="shared" si="1"/>
@@ -7981,10 +7986,10 @@
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="97" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B54" s="105" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C54" s="107" t="str">
         <f t="shared" si="1"/>
@@ -7997,10 +8002,10 @@
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="97" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B55" s="105" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C55" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8013,10 +8018,10 @@
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="97" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B56" s="105" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C56" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8029,10 +8034,10 @@
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="97" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B57" s="105" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C57" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8045,10 +8050,10 @@
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="97" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B58" s="105" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C58" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8061,10 +8066,10 @@
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="97" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B59" s="105" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C59" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8077,10 +8082,10 @@
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="97" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B60" s="105" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C60" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8093,10 +8098,10 @@
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="97" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B61" s="105" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C61" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8109,10 +8114,10 @@
     </row>
     <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="97" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B62" s="105" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C62" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8125,10 +8130,10 @@
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="97" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B63" s="105" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C63" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8141,10 +8146,10 @@
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="97" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B64" s="105" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C64" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8157,10 +8162,10 @@
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="97" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B65" s="105" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C65" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8173,10 +8178,10 @@
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="97" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B66" s="105" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C66" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8189,10 +8194,10 @@
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="97" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B67" s="105" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C67" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8205,10 +8210,10 @@
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="97" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B68" s="105" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C68" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8221,10 +8226,10 @@
     </row>
     <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="97" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B69" s="105" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C69" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8237,10 +8242,10 @@
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B70" s="105" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C70" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8253,10 +8258,10 @@
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="97" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B71" s="105" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C71" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8269,10 +8274,10 @@
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="97" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B72" s="105" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C72" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8285,10 +8290,10 @@
     </row>
     <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="97" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B73" s="105" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C73" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8301,10 +8306,10 @@
     </row>
     <row r="74" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="97" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B74" s="105" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C74" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8317,10 +8322,10 @@
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="97" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B75" s="105" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C75" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8333,10 +8338,10 @@
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="97" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B76" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C76" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8349,10 +8354,10 @@
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="97" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B77" s="105" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C77" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8365,10 +8370,10 @@
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="97" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B78" s="105" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C78" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8381,10 +8386,10 @@
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="97" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B79" s="105" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C79" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8397,10 +8402,10 @@
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="97" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B80" s="105" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C80" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8413,10 +8418,10 @@
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="97" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B81" s="105" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C81" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8429,10 +8434,10 @@
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="97" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B82" s="105" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C82" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8445,10 +8450,10 @@
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="97" t="s">
+        <v>327</v>
+      </c>
+      <c r="B83" s="105" t="s">
         <v>328</v>
-      </c>
-      <c r="B83" s="105" t="s">
-        <v>329</v>
       </c>
       <c r="C83" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8461,10 +8466,10 @@
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="97" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B84" s="105" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C84" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8477,10 +8482,10 @@
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="97" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B85" s="105" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C85" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8493,10 +8498,10 @@
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="97" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B86" s="105" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C86" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8509,10 +8514,10 @@
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="97" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B87" s="105" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C87" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8525,10 +8530,10 @@
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="97" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B88" s="105" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C88" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8541,10 +8546,10 @@
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="97" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B89" s="105" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C89" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8557,10 +8562,10 @@
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="97" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B90" s="105" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C90" s="107" t="str">
         <f t="shared" ref="C90:C94" si="2">""""&amp;A90&amp;""""&amp;" : "&amp;""""&amp;B90&amp;""""&amp;","</f>
@@ -8573,10 +8578,10 @@
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="97" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B91" s="105" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C91" s="107" t="str">
         <f t="shared" si="2"/>
@@ -8589,10 +8594,10 @@
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="97" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B92" s="105" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C92" s="107" t="str">
         <f t="shared" si="2"/>
@@ -8605,10 +8610,10 @@
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="97" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B93" s="105" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C93" s="107" t="str">
         <f t="shared" si="2"/>
@@ -8621,10 +8626,10 @@
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="97" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B94" s="105" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C94" s="107" t="str">
         <f t="shared" si="2"/>
@@ -8693,216 +8698,216 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="108" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E1" s="108"/>
       <c r="H1" s="108"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="110" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B41" s="110" t="e">
         <v>#N/A</v>
       </c>
       <c r="C41" s="110"/>
       <c r="D41" s="110" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E41" s="110"/>
     </row>
@@ -8915,47 +8920,47 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="109" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B43" s="109" t="e">
         <v>#N/A</v>
       </c>
       <c r="D43" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="109" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B44" s="109" t="e">
         <v>#N/A</v>
       </c>
       <c r="D44" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="109" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B45" s="109" t="e">
         <v>#N/A</v>
       </c>
       <c r="C45" s="110"/>
       <c r="D45" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="109" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B46" s="109" t="e">
         <v>#N/A</v>
       </c>
       <c r="D46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">

--- a/Wyoming/WaterAllocation/WYwr_POD_Allocation Schema Mapping to WaDE.xlsx
+++ b/Wyoming/WaterAllocation/WYwr_POD_Allocation Schema Mapping to WaDE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Wyoming\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9806D355-6C59-461C-A39D-750C474CD2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CACA95-C7C9-4FB1-95CD-2DD9A31A1219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="28680" yWindow="-1380" windowWidth="38640" windowHeight="21120" tabRatio="714" activeTab="7" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -1084,9 +1084,6 @@
     <t>OTH_CM</t>
   </si>
   <si>
-    <t>Other - Commercial</t>
-  </si>
-  <si>
     <t>AESFIS</t>
   </si>
   <si>
@@ -1129,9 +1126,6 @@
     <t>OTH_IN</t>
   </si>
   <si>
-    <t>Other - Industrial</t>
-  </si>
-  <si>
     <t>PCT</t>
   </si>
   <si>
@@ -1202,9 +1196,6 @@
   </si>
   <si>
     <t>OTH_TM</t>
-  </si>
-  <si>
-    <t>Other - Temporary</t>
   </si>
   <si>
     <t>RDC</t>
@@ -1490,18 +1481,9 @@
     <t>Commercial Agriculture</t>
   </si>
   <si>
-    <t>Coal Bed Methane - Ground Water</t>
-  </si>
-  <si>
     <t>Mine Dewatering</t>
   </si>
   <si>
-    <t>Domestic - Ground Water</t>
-  </si>
-  <si>
-    <t>Domestic - Surface Water</t>
-  </si>
-  <si>
     <t>Domestic (Phase 2 Award)</t>
   </si>
   <si>
@@ -1514,34 +1496,13 @@
     <t>Instream Flow (Phase 2 Award)</t>
   </si>
   <si>
-    <t>Industrial - Ground Water</t>
-  </si>
-  <si>
-    <t>Industrial - Surface Water</t>
-  </si>
-  <si>
-    <t>Irrigation - Ground Water</t>
-  </si>
-  <si>
-    <t>Irrigation - Surface Water</t>
-  </si>
-  <si>
     <t>Maintain Natural Lake Level (Phase 2 Award)</t>
   </si>
   <si>
     <t>Large Scale Landscape</t>
   </si>
   <si>
-    <t>Miscellaneous - Ground Water</t>
-  </si>
-  <si>
     <t>Monitor</t>
-  </si>
-  <si>
-    <t>Municipal - Ground Water</t>
-  </si>
-  <si>
-    <t>Municipal - Surface Water</t>
   </si>
   <si>
     <t>Natural Flow (Phase 2 Award)</t>
@@ -1670,6 +1631,45 @@
   </si>
   <si>
     <t>WaDEDataMappingUrl</t>
+  </si>
+  <si>
+    <t>Coal Bed Methane Ground Water</t>
+  </si>
+  <si>
+    <t>Domestic Ground Water</t>
+  </si>
+  <si>
+    <t>Domestic Surface Water</t>
+  </si>
+  <si>
+    <t>Industrial Ground Water</t>
+  </si>
+  <si>
+    <t>Industrial Surface Water</t>
+  </si>
+  <si>
+    <t>Irrigation Ground Water</t>
+  </si>
+  <si>
+    <t>Irrigation Surface Water</t>
+  </si>
+  <si>
+    <t>Miscellaneous Ground Water</t>
+  </si>
+  <si>
+    <t>Municipal Ground Water</t>
+  </si>
+  <si>
+    <t>Municipal Surface Water</t>
+  </si>
+  <si>
+    <t>Other Commercial</t>
+  </si>
+  <si>
+    <t>Other Industrial</t>
+  </si>
+  <si>
+    <t>Other Temporary</t>
   </si>
 </sst>
 </file>
@@ -3304,7 +3304,7 @@
         <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3312,7 +3312,7 @@
         <v>236</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3320,7 +3320,7 @@
         <v>237</v>
       </c>
       <c r="B8" s="93" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3328,22 +3328,22 @@
         <v>240</v>
       </c>
       <c r="B17" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -3356,7 +3356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -3460,7 +3460,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="92" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="F4" s="60" t="s">
         <v>38</v>
@@ -3472,7 +3472,7 @@
         <v>38</v>
       </c>
       <c r="I4" s="76" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J4" s="77" t="s">
         <v>187</v>
@@ -3492,7 +3492,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>38</v>
@@ -3524,7 +3524,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>38</v>
@@ -3556,7 +3556,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F7" s="44" t="s">
         <v>38</v>
@@ -3588,7 +3588,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F8" s="44" t="s">
         <v>38</v>
@@ -3620,7 +3620,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="F9" s="44" t="s">
         <v>38</v>
@@ -3650,7 +3650,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="F10" s="44" t="s">
         <v>38</v>
@@ -3682,7 +3682,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="91" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>38</v>
@@ -3714,7 +3714,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>38</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="13" spans="1:10" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>34</v>
@@ -3746,7 +3746,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="100" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F13" s="44" t="s">
         <v>38</v>
@@ -3885,7 +3885,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="92" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -3945,7 +3945,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="99" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>38</v>
@@ -4137,7 +4137,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="99" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>38</v>
@@ -4169,7 +4169,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="99" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F13" s="44" t="s">
         <v>38</v>
@@ -4304,7 +4304,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -4336,7 +4336,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="103" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>38</v>
@@ -4368,7 +4368,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>38</v>
@@ -4400,7 +4400,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F7" s="44" t="s">
         <v>38</v>
@@ -4432,7 +4432,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F8" s="44" t="s">
         <v>38</v>
@@ -4464,7 +4464,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F9" s="44" t="s">
         <v>38</v>
@@ -4496,7 +4496,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="103" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F10" s="44" t="s">
         <v>38</v>
@@ -4528,7 +4528,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>38</v>
@@ -4683,7 +4683,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F4" s="60" t="s">
         <v>38</v>
@@ -4713,7 +4713,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>38</v>
@@ -4743,7 +4743,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>38</v>
@@ -4806,10 +4806,10 @@
         <v>38</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H8" s="81"/>
       <c r="I8" s="76" t="s">
@@ -4833,7 +4833,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
@@ -4863,7 +4863,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -5000,7 +5000,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F4" s="60" t="s">
         <v>38</v>
@@ -5030,7 +5030,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>38</v>
@@ -5060,7 +5060,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>38</v>
@@ -5090,7 +5090,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F7" s="44" t="s">
         <v>38</v>
@@ -5150,7 +5150,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F9" s="44" t="s">
         <v>38</v>
@@ -5178,7 +5178,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F10" s="44" t="s">
         <v>38</v>
@@ -5208,7 +5208,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>38</v>
@@ -5238,7 +5238,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>38</v>
@@ -5271,10 +5271,10 @@
         <v>38</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H13" s="83"/>
       <c r="I13" s="80" t="s">
@@ -5301,10 +5301,10 @@
         <v>38</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H14" s="83"/>
       <c r="I14" s="80">
@@ -5328,7 +5328,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F15" s="44" t="s">
         <v>38</v>
@@ -5358,7 +5358,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F16" s="44" t="s">
         <v>38</v>
@@ -5417,10 +5417,10 @@
         <v>38</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H18" s="75"/>
       <c r="I18" s="80" t="s">
@@ -5444,7 +5444,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F19" s="44" t="s">
         <v>38</v>
@@ -5474,7 +5474,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F20" s="44" t="s">
         <v>38</v>
@@ -5507,10 +5507,10 @@
         <v>38</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H21" s="75"/>
       <c r="I21" s="80" t="s">
@@ -5534,7 +5534,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F22" s="44" t="s">
         <v>38</v>
@@ -5564,7 +5564,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F23" s="44" t="s">
         <v>38</v>
@@ -5839,7 +5839,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>34</v>
@@ -5851,7 +5851,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="32"/>
@@ -5873,7 +5873,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="121" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -5905,7 +5905,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="68" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -5937,7 +5937,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -5969,7 +5969,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="67" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>38</v>
@@ -6001,7 +6001,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="69" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F14" s="60" t="s">
         <v>38</v>
@@ -6033,7 +6033,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>38</v>
@@ -6065,7 +6065,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>38</v>
@@ -6097,7 +6097,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -6129,7 +6129,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>38</v>
@@ -6161,7 +6161,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>38</v>
@@ -6193,7 +6193,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>38</v>
@@ -6225,7 +6225,7 @@
         <v>38</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>38</v>
@@ -6257,7 +6257,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>38</v>
@@ -6292,10 +6292,10 @@
         <v>38</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H23" s="86" t="s">
         <v>38</v>
@@ -6324,10 +6324,10 @@
         <v>38</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H24" s="86" t="s">
         <v>38</v>
@@ -6356,10 +6356,10 @@
         <v>38</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G25" s="47" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H25" s="86" t="s">
         <v>38</v>
@@ -6385,13 +6385,13 @@
         <v>38</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G26" s="47" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H26" s="86" t="s">
         <v>38</v>
@@ -6418,10 +6418,10 @@
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="42" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G27" s="47" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H27" s="86" t="s">
         <v>38</v>
@@ -6447,7 +6447,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>38</v>
@@ -6479,7 +6479,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>38</v>
@@ -6511,7 +6511,7 @@
         <v>38</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>38</v>
@@ -6543,13 +6543,13 @@
         <v>20</v>
       </c>
       <c r="E31" s="118" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F31" s="119" t="s">
         <v>38</v>
       </c>
       <c r="G31" s="120" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H31" s="86" t="s">
         <v>38</v>
@@ -6575,7 +6575,7 @@
         <v>38</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>38</v>
@@ -6607,13 +6607,13 @@
         <v>38</v>
       </c>
       <c r="E33" s="71" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F33" s="42" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G33" s="46" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H33" s="86" t="s">
         <v>38</v>
@@ -6639,7 +6639,7 @@
         <v>38</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>38</v>
@@ -6671,7 +6671,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>38</v>
@@ -6703,7 +6703,7 @@
         <v>20</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>38</v>
@@ -6767,7 +6767,7 @@
         <v>38</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>38</v>
@@ -6825,7 +6825,7 @@
         <v>38</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F40" s="24" t="s">
         <v>38</v>
@@ -6857,7 +6857,7 @@
         <v>38</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>38</v>
@@ -6887,7 +6887,7 @@
         <v>20</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>38</v>
@@ -6919,7 +6919,7 @@
         <v>38</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F43" s="24" t="s">
         <v>38</v>
@@ -6939,7 +6939,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -6957,10 +6957,10 @@
         <v>38</v>
       </c>
       <c r="I44" s="113" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="J44" s="114" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6983,7 +6983,7 @@
         <v>38</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F45" s="24" t="s">
         <v>38</v>
@@ -7015,7 +7015,7 @@
         <v>20</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>38</v>
@@ -7035,7 +7035,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>104</v>
@@ -7047,7 +7047,7 @@
         <v>20</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F47" s="24" t="s">
         <v>38</v>
@@ -7079,7 +7079,7 @@
         <v>38</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F48" s="24" t="s">
         <v>38</v>
@@ -7111,8 +7111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A68CD9-E6C8-4C1E-8A36-F76F66BA5935}">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7128,10 +7128,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="95" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G1" s="98" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7166,18 +7166,18 @@
       <c r="D3" s="41"/>
       <c r="E3" s="41"/>
       <c r="F3" s="97" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G3" s="97" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="97" t="s">
+        <v>347</v>
+      </c>
+      <c r="B4" s="105" t="s">
         <v>348</v>
-      </c>
-      <c r="B4" s="105" t="s">
-        <v>349</v>
       </c>
       <c r="C4" s="107" t="str">
         <f t="shared" ref="C4:C42" si="0">""""&amp;A4&amp;""""&amp;" : "&amp;""""&amp;B4&amp;""""&amp;","</f>
@@ -7186,18 +7186,18 @@
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
       <c r="F4" s="97" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G4" s="97" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="97" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C5" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7206,18 +7206,18 @@
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
       <c r="F5" s="97" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G5" s="97" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="97" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B6" s="105" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C6" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7226,18 +7226,18 @@
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
       <c r="F6" s="97" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="97" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B7" s="105" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C7" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7246,18 +7246,18 @@
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
       <c r="F7" s="97" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G7" s="97" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="97" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B8" s="105" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C8" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7266,18 +7266,18 @@
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
       <c r="F8" s="97" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G8" s="97" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="97" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B9" s="105" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C9" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7286,10 +7286,10 @@
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
       <c r="F9" s="97" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G9" s="97" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7306,10 +7306,10 @@
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
       <c r="F10" s="97" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G10" s="97" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7326,10 +7326,10 @@
       <c r="D11" s="41"/>
       <c r="E11" s="41"/>
       <c r="F11" s="97" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G11" s="97" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7337,7 +7337,7 @@
         <v>319</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C12" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7346,10 +7346,10 @@
       <c r="D12" s="41"/>
       <c r="E12" s="41"/>
       <c r="F12" s="97" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G12" s="97" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7357,11 +7357,11 @@
         <v>274</v>
       </c>
       <c r="B13" s="105" t="s">
-        <v>474</v>
+        <v>514</v>
       </c>
       <c r="C13" s="107" t="str">
         <f t="shared" si="0"/>
-        <v>"CBM" : "Coal Bed Methane - Ground Water",</v>
+        <v>"CBM" : "Coal Bed Methane Ground Water",</v>
       </c>
       <c r="D13" s="41"/>
       <c r="E13" s="41"/>
@@ -7369,7 +7369,7 @@
         <v>137</v>
       </c>
       <c r="G13" s="97" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7386,10 +7386,10 @@
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="97" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G14" s="97" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7406,10 +7406,10 @@
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="97" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G15" s="97" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7426,10 +7426,10 @@
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="97" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G16" s="97" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7446,10 +7446,10 @@
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="97" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G17" s="97" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7505,7 +7505,7 @@
         <v>320</v>
       </c>
       <c r="B21" s="105" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C21" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7519,11 +7519,11 @@
         <v>275</v>
       </c>
       <c r="B22" s="105" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="C22" s="107" t="str">
         <f t="shared" si="0"/>
-        <v>"DOM_GW" : "Domestic - Ground Water",</v>
+        <v>"DOM_GW" : "Domestic Ground Water",</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
@@ -7533,11 +7533,11 @@
         <v>286</v>
       </c>
       <c r="B23" s="105" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="C23" s="107" t="str">
         <f t="shared" si="0"/>
-        <v>"DOM_SW" : "Domestic - Surface Water",</v>
+        <v>"DOM_SW" : "Domestic Surface Water",</v>
       </c>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
@@ -7547,7 +7547,7 @@
         <v>287</v>
       </c>
       <c r="B24" s="105" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C24" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7558,10 +7558,10 @@
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="97" t="s">
+        <v>350</v>
+      </c>
+      <c r="B25" s="105" t="s">
         <v>351</v>
-      </c>
-      <c r="B25" s="105" t="s">
-        <v>352</v>
       </c>
       <c r="C25" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7586,10 +7586,10 @@
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="97" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B27" s="105" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C27" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7645,7 +7645,7 @@
         <v>292</v>
       </c>
       <c r="B31" s="105" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C31" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7698,10 +7698,10 @@
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="97" t="s">
+        <v>352</v>
+      </c>
+      <c r="B35" s="105" t="s">
         <v>353</v>
-      </c>
-      <c r="B35" s="105" t="s">
-        <v>354</v>
       </c>
       <c r="C35" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7715,7 +7715,7 @@
         <v>321</v>
       </c>
       <c r="B36" s="105" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C36" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7740,10 +7740,10 @@
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="97" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B38" s="105" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C38" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7771,7 +7771,7 @@
         <v>298</v>
       </c>
       <c r="B40" s="105" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C40" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7785,11 +7785,11 @@
         <v>276</v>
       </c>
       <c r="B41" s="105" t="s">
-        <v>482</v>
+        <v>517</v>
       </c>
       <c r="C41" s="107" t="str">
         <f t="shared" si="0"/>
-        <v>"IND_GW" : "Industrial - Ground Water",</v>
+        <v>"IND_GW" : "Industrial Ground Water",</v>
       </c>
       <c r="D41" s="41"/>
       <c r="E41" s="41"/>
@@ -7799,11 +7799,11 @@
         <v>299</v>
       </c>
       <c r="B42" s="105" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="C42" s="107" t="str">
         <f t="shared" si="0"/>
-        <v>"IND_SW" : "Industrial - Surface Water",</v>
+        <v>"IND_SW" : "Industrial Surface Water",</v>
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="41"/>
@@ -7813,11 +7813,11 @@
         <v>277</v>
       </c>
       <c r="B43" s="105" t="s">
-        <v>484</v>
+        <v>519</v>
       </c>
       <c r="C43" s="107" t="str">
         <f t="shared" ref="C43:C89" si="1">""""&amp;A43&amp;""""&amp;" : "&amp;""""&amp;B43&amp;""""&amp;","</f>
-        <v>"IRR_GW" : "Irrigation - Ground Water",</v>
+        <v>"IRR_GW" : "Irrigation Ground Water",</v>
       </c>
       <c r="D43" s="41"/>
       <c r="E43" s="41"/>
@@ -7829,11 +7829,11 @@
         <v>300</v>
       </c>
       <c r="B44" s="105" t="s">
-        <v>485</v>
+        <v>520</v>
       </c>
       <c r="C44" s="107" t="str">
         <f t="shared" si="1"/>
-        <v>"IRR_SW" : "Irrigation - Surface Water",</v>
+        <v>"IRR_SW" : "Irrigation Surface Water",</v>
       </c>
       <c r="D44" s="41"/>
       <c r="E44" s="41"/>
@@ -7845,7 +7845,7 @@
         <v>301</v>
       </c>
       <c r="B45" s="105" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C45" s="107" t="str">
         <f t="shared" si="1"/>
@@ -7861,7 +7861,7 @@
         <v>302</v>
       </c>
       <c r="B46" s="105" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="C46" s="107" t="str">
         <f t="shared" si="1"/>
@@ -7877,7 +7877,7 @@
         <v>322</v>
       </c>
       <c r="B47" s="105" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="C47" s="107" t="str">
         <f t="shared" si="1"/>
@@ -7906,10 +7906,10 @@
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="97" t="s">
+        <v>354</v>
+      </c>
+      <c r="B49" s="105" t="s">
         <v>355</v>
-      </c>
-      <c r="B49" s="105" t="s">
-        <v>356</v>
       </c>
       <c r="C49" s="107" t="str">
         <f t="shared" si="1"/>
@@ -7925,7 +7925,7 @@
         <v>343</v>
       </c>
       <c r="B50" s="105" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="C50" s="107" t="str">
         <f t="shared" si="1"/>
@@ -7954,10 +7954,10 @@
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="97" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B52" s="105" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C52" s="107" t="str">
         <f t="shared" si="1"/>
@@ -7970,10 +7970,10 @@
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="97" t="s">
+        <v>356</v>
+      </c>
+      <c r="B53" s="105" t="s">
         <v>357</v>
-      </c>
-      <c r="B53" s="105" t="s">
-        <v>358</v>
       </c>
       <c r="C53" s="107" t="str">
         <f t="shared" si="1"/>
@@ -7986,10 +7986,10 @@
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="97" t="s">
+        <v>358</v>
+      </c>
+      <c r="B54" s="105" t="s">
         <v>359</v>
-      </c>
-      <c r="B54" s="105" t="s">
-        <v>360</v>
       </c>
       <c r="C54" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8002,14 +8002,14 @@
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="97" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B55" s="105" t="s">
-        <v>488</v>
+        <v>521</v>
       </c>
       <c r="C55" s="107" t="str">
         <f t="shared" si="1"/>
-        <v>"MIS" : "Miscellaneous - Ground Water",</v>
+        <v>"MIS" : "Miscellaneous Ground Water",</v>
       </c>
       <c r="D55" s="41"/>
       <c r="E55" s="41"/>
@@ -8021,7 +8021,7 @@
         <v>278</v>
       </c>
       <c r="B56" s="105" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="C56" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8037,11 +8037,11 @@
         <v>279</v>
       </c>
       <c r="B57" s="105" t="s">
-        <v>490</v>
+        <v>522</v>
       </c>
       <c r="C57" s="107" t="str">
         <f t="shared" si="1"/>
-        <v>"MUN_GW" : "Municipal - Ground Water",</v>
+        <v>"MUN_GW" : "Municipal Ground Water",</v>
       </c>
       <c r="D57" s="41"/>
       <c r="E57" s="41"/>
@@ -8053,11 +8053,11 @@
         <v>303</v>
       </c>
       <c r="B58" s="105" t="s">
-        <v>491</v>
+        <v>523</v>
       </c>
       <c r="C58" s="107" t="str">
         <f t="shared" si="1"/>
-        <v>"MUN_SW" : "Municipal - Surface Water",</v>
+        <v>"MUN_SW" : "Municipal Surface Water",</v>
       </c>
       <c r="D58" s="41"/>
       <c r="E58" s="41"/>
@@ -8069,7 +8069,7 @@
         <v>304</v>
       </c>
       <c r="B59" s="105" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="C59" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8085,7 +8085,7 @@
         <v>323</v>
       </c>
       <c r="B60" s="105" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="C60" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8117,11 +8117,11 @@
         <v>346</v>
       </c>
       <c r="B62" s="105" t="s">
-        <v>347</v>
+        <v>524</v>
       </c>
       <c r="C62" s="107" t="str">
         <f t="shared" si="1"/>
-        <v>"OTH_CM" : "Other - Commercial",</v>
+        <v>"OTH_CM" : "Other Commercial",</v>
       </c>
       <c r="D62" s="41"/>
       <c r="E62" s="41"/>
@@ -8130,14 +8130,14 @@
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="97" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B63" s="105" t="s">
-        <v>362</v>
+        <v>525</v>
       </c>
       <c r="C63" s="107" t="str">
         <f t="shared" si="1"/>
-        <v>"OTH_IN" : "Other - Industrial",</v>
+        <v>"OTH_IN" : "Other Industrial",</v>
       </c>
       <c r="D63" s="41"/>
       <c r="E63" s="41"/>
@@ -8146,14 +8146,14 @@
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="97" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B64" s="105" t="s">
-        <v>387</v>
+        <v>526</v>
       </c>
       <c r="C64" s="107" t="str">
         <f t="shared" si="1"/>
-        <v>"OTH_TM" : "Other - Temporary",</v>
+        <v>"OTH_TM" : "Other Temporary",</v>
       </c>
       <c r="D64" s="41"/>
       <c r="E64" s="41"/>
@@ -8165,7 +8165,7 @@
         <v>324</v>
       </c>
       <c r="B65" s="105" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="C65" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8178,10 +8178,10 @@
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="97" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B66" s="105" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C66" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8194,10 +8194,10 @@
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="97" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B67" s="105" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C67" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8226,10 +8226,10 @@
     </row>
     <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="97" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B69" s="105" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C69" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8258,10 +8258,10 @@
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="97" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B71" s="105" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C71" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8290,10 +8290,10 @@
     </row>
     <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="97" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B73" s="105" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C73" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8309,7 +8309,7 @@
         <v>325</v>
       </c>
       <c r="B74" s="105" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="C74" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8322,10 +8322,10 @@
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="97" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B75" s="105" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="C75" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8338,10 +8338,10 @@
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="97" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B76" s="105" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C76" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8354,10 +8354,10 @@
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="97" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B77" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C77" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8418,7 +8418,7 @@
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="97" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B81" s="105" t="s">
         <v>249</v>
@@ -8437,7 +8437,7 @@
         <v>326</v>
       </c>
       <c r="B82" s="105" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="C82" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8485,7 +8485,7 @@
         <v>312</v>
       </c>
       <c r="B85" s="105" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C85" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8530,10 +8530,10 @@
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="97" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B88" s="105" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="C88" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8565,7 +8565,7 @@
         <v>315</v>
       </c>
       <c r="B90" s="105" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="C90" s="107" t="str">
         <f t="shared" ref="C90:C94" si="2">""""&amp;A90&amp;""""&amp;" : "&amp;""""&amp;B90&amp;""""&amp;","</f>
@@ -8578,10 +8578,10 @@
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="97" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B91" s="105" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C91" s="107" t="str">
         <f t="shared" si="2"/>
@@ -8613,7 +8613,7 @@
         <v>329</v>
       </c>
       <c r="B93" s="105" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="C93" s="107" t="str">
         <f t="shared" si="2"/>
@@ -8685,8 +8685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4D730E-5938-430B-ADEE-1D881E5D0F28}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G42" sqref="G41:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8698,7 +8698,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="108" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="E1" s="108"/>
       <c r="H1" s="108"/>
@@ -8805,7 +8805,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -8815,17 +8815,17 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -8845,12 +8845,12 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -8900,14 +8900,14 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="110" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="B41" s="110" t="e">
         <v>#N/A</v>
       </c>
       <c r="C41" s="110"/>
       <c r="D41" s="110" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="E41" s="110"/>
     </row>
@@ -8920,41 +8920,41 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="109" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="B43" s="109" t="e">
         <v>#N/A</v>
       </c>
       <c r="D43" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="109" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="B44" s="109" t="e">
         <v>#N/A</v>
       </c>
       <c r="D44" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="109" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="B45" s="109" t="e">
         <v>#N/A</v>
       </c>
       <c r="C45" s="110"/>
       <c r="D45" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="109" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="B46" s="109" t="e">
         <v>#N/A</v>
